--- a/data/attempts/grey/big.xlsx
+++ b/data/attempts/grey/big.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Owner/arch/orca/data/attempts/grey/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="big.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -57,6 +65,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -865,6 +878,350 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Threshold</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>big.csv!$B$1:$B$256</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="42">
+                  <c:v>28762.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>26878.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24481.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22864.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21313.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20008.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18472.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17314.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16449.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15618.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14694.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14024.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13615.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>12860.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>12350.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12053.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11689.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11415.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11295.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10855.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10385.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10109.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9865.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9832.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9533.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9410.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9254.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8956.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8401.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7959.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7691.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7124.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6816.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6331.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5918.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5754.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5393.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5147.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4857.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4707.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4403.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4264.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4167.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3929.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3857.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3908.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3700.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3667.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3704.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3492.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3544.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3392.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3476.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3322.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3307.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3267.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3312.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3241.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3375.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3182.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3317.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3152.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3170.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3156.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3102.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3177.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3081.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3152.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3079.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2998.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3059.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3067.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3050.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3131.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3143.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3224.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3283.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3231.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3393.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3493.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3430.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3461.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3603.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3678.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3715.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3856.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>4069.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>4013.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>4324.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>4468.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>4799.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>4992.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>5257.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>5501.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6103.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6567.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>6921.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>7357.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>8146.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>8728.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>9670.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>10294.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>11343.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>12751.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14312.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>16141.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>18350.0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>20832.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -873,13 +1230,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2122317464"/>
-        <c:axId val="-2133993144"/>
+        <c:axId val="650852784"/>
+        <c:axId val="650855536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2122317464"/>
+        <c:axId val="650852784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,7 +1244,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133993144"/>
+        <c:crossAx val="650855536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -896,7 +1252,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2133993144"/>
+        <c:axId val="650855536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -907,7 +1263,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122317464"/>
+        <c:crossAx val="650852784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -933,16 +1289,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1286,1290 +1642,1614 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A256"/>
+  <dimension ref="A1:B256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A256" sqref="A1:A256"/>
+      <selection activeCell="E148" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>692</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2363</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6404</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>14168</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>27512</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>44564</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>63366</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>81951</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>100376</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>121313</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>144600</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>163003</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>171384</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>169342</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>159774</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>143606</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>125700</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>109714</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>95737</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>85236</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>77372</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>71249</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>65588</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>61130</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>56814</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>53319</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>50262</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>46601</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>42955</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39808</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>36655</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>33572</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>31021</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>28762</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43">
+        <v>28762</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>26878</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44">
+        <v>26878</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>24481</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45">
+        <v>24481</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>22864</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46">
+        <v>22864</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>21313</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47">
+        <v>21313</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>20008</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>20008</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>18472</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>18472</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>17314</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>17314</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>16449</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>16449</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>15618</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>15618</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>14694</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53">
+        <v>14694</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>14024</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54">
+        <v>14024</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>13615</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55">
+        <v>13615</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>12860</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56">
+        <v>12860</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>12350</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57">
+        <v>12350</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>12053</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58">
+        <v>12053</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>11689</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59">
+        <v>11689</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>11415</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60">
+        <v>11415</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>11295</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61">
+        <v>11295</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>10855</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62">
+        <v>10855</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>10385</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63">
+        <v>10385</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>10109</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64">
+        <v>10109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>9865</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65">
+        <v>9865</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>9832</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66">
+        <v>9832</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>9533</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67">
+        <v>9533</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>9410</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68">
+        <v>9410</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>9254</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69">
+        <v>9254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>8956</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70">
+        <v>8956</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>8401</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71">
+        <v>8401</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>7959</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72">
+        <v>7959</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>7691</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73">
+        <v>7691</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>7124</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74">
+        <v>7124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>6816</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75">
+        <v>6816</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>6331</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76">
+        <v>6331</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>5918</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77">
+        <v>5918</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>5754</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78">
+        <v>5754</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>5393</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>5147</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80">
+        <v>5147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>4857</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81">
+        <v>4857</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>4707</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82">
+        <v>4707</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>4403</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>4264</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>4167</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>3929</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86">
+        <v>3929</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>3857</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87">
+        <v>3857</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>3908</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>3700</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>3667</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90">
+        <v>3667</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>3704</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91">
+        <v>3704</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>3492</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>3544</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93">
+        <v>3544</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>3392</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>3476</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>3322</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>3307</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>3267</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>3312</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>3241</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>3375</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="B101">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>3182</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="B102">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>3317</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="B103">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>3152</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="B104">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>3170</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="B105">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>3156</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="B106">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>3102</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="B107">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>3177</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="B108">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>3081</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="B109">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>3152</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="B110">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>3079</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="B111">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2998</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="B112">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>3059</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="B113">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>3067</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="B114">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>3050</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="B115">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>3131</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="B116">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>3143</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="B117">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>3224</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="B118">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>3283</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="B119">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>3231</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="B120">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>3393</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="B121">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>3493</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="B122">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>3430</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="B123">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>3461</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="B124">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>3603</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="B125">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>3678</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="B126">
+        <v>3678</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>3715</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="B127">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>3856</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="B128">
+        <v>3856</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>4069</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="B129">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>4013</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="B130">
+        <v>4013</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>4324</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="B131">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>4468</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="B132">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>4799</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="B133">
+        <v>4799</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>4992</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="B134">
+        <v>4992</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>5257</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="B135">
+        <v>5257</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>5501</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="B136">
+        <v>5501</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>6103</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="B137">
+        <v>6103</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>6567</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="B138">
+        <v>6567</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>6921</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
+      <c r="B139">
+        <v>6921</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>7357</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
+      <c r="B140">
+        <v>7357</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>8146</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="B141">
+        <v>8146</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>8728</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="B142">
+        <v>8728</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>9670</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
+      <c r="B143">
+        <v>9670</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>10294</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="B144">
+        <v>10294</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>11343</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="B145">
+        <v>11343</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>12751</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="B146">
+        <v>12751</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>14312</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="B147">
+        <v>14312</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>16141</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="B148">
+        <v>16141</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>18350</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="B149">
+        <v>18350</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>20832</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="B150">
+        <v>20832</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>23987</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>28178</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>32498</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>37611</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>42849</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>48449</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>55022</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>60435</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>66472</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>71028</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>75586</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>78116</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>80981</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>82637</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>82349</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>82358</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>82486</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>81649</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>81201</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>80673</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>79589</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>77896</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>76272</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>74899</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>73839</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>71519</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>70719</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>69842</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>69782</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>70733</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>72562</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>74511</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>77972</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>81905</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>87275</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>93455</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>100666</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>108367</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>118666</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>127590</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>136388</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>144137</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>150795</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>155263</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>156466</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>153240</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>145261</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>133961</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>119733</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>102207</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>83618</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>65962</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>50021</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>35792</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>24105</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>15996</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>9961</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>5877</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>3481</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>1977</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>1126</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>634</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>374</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>225</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>134</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>77</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>58</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>33</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>21</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>19</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>18</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>11</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>0</v>
       </c>
@@ -2577,10 +3257,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>